--- a/biology/Médecine/Jules_Aristide_Gély/Jules_Aristide_Gély.xlsx
+++ b/biology/Médecine/Jules_Aristide_Gély/Jules_Aristide_Gély.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jules_Aristide_G%C3%A9ly</t>
+          <t>Jules_Aristide_Gély</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jules-Aristide Gély est un médecin et chirurgien français né le 29 juin 1806 à Nantes où il est mort le 13 janvier 1861[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jules-Aristide Gély est un médecin et chirurgien français né le 29 juin 1806 à Nantes où il est mort le 13 janvier 1861.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jules_Aristide_G%C3%A9ly</t>
+          <t>Jules_Aristide_Gély</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Jean-Luc Gély, capitaine de navire, et de Florence-Rosalie Agaisse, il suit ses études de mécène à Nantes (1824) et à Paris (1827), ayant notamment pour professeur Guillaume Dupuytren. Après l'obtention de son doctorat en 1831, il revient s'installer à Nantes.
 Chirurgien suppléant à l'Hôtel-Dieu de Nantes, il devient chef d'un service en 1848.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jules_Aristide_G%C3%A9ly</t>
+          <t>Jules_Aristide_Gély</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Publications
-Études sur le cathétérisme curviligne et sur l'emploi d'une nouvelle sonde dans le cathétérisme évacuatif (1861)
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Études sur le cathétérisme curviligne et sur l'emploi d'une nouvelle sonde dans le cathétérisme évacuatif (1861)
 Études hygiéniques relatives au desséchement du lac de Grand-Lieu (1856)
 L'Enteroraphie [i.e. enterorraphie] devant l'Académie royale de médecine (1846)
 Discours prononcé à la séance de rentrée des cours de l'école préparatoire de médecine et de pharmacie de Nantes et de distribution des prix aux élèves de cette école, le 18 novembre 1845 (1845)
